--- a/complaints.xlsx
+++ b/complaints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\docvec_hackathon\dovec_hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5052C8-57D3-4005-B3F0-E421F3DE4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96ACF40-EEC8-4D01-81AB-56AD068A0A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75135ECF-1048-4EAE-9813-B56350702146}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19848" windowHeight="10056" xr2:uid="{75135ECF-1048-4EAE-9813-B56350702146}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>customer_name</t>
   </si>
@@ -92,9 +92,6 @@
     <t>cher@example.com</t>
   </si>
   <si>
-    <t>complains</t>
-  </si>
-  <si>
     <t>Noise disturbance from neighboring unit</t>
   </si>
   <si>
@@ -189,6 +186,12 @@
   </si>
   <si>
     <t>water in the pool is smelly</t>
+  </si>
+  <si>
+    <t>complaint_id</t>
+  </si>
+  <si>
+    <t>complaints</t>
   </si>
 </sst>
 </file>
@@ -583,294 +586,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CAADA-348A-4049-BEC7-2104E5ABBBDA}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{416722AF-FAC8-4C8E-AABE-69DC6FB2D4F0}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{51D702CD-CB41-4AC1-9CD3-492B3FF49D57}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{F3051625-5778-430C-B002-B57C63C9C0AD}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{591B1184-9B5C-49E0-BD58-363086B73D1E}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{653C535A-D29A-4419-BA3E-7832F54E8496}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{ACF3839C-A984-43AF-A340-4356067589A8}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{65C2C9EF-69F7-4D32-AF83-97521F500E65}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{78EED579-051D-4A7F-B1B2-F8E62D65CEA3}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{C64E2A55-10B1-4F21-8CEA-BA41ED78B3CC}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{754133E3-35AB-4D45-B531-E5D365DE6734}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{D3950B55-B8E7-4422-8DC6-F4D3485BFA97}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{BBB90398-E806-4963-A71E-A27966DE5A8F}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{416722AF-FAC8-4C8E-AABE-69DC6FB2D4F0}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{51D702CD-CB41-4AC1-9CD3-492B3FF49D57}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{F3051625-5778-430C-B002-B57C63C9C0AD}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{591B1184-9B5C-49E0-BD58-363086B73D1E}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{653C535A-D29A-4419-BA3E-7832F54E8496}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{ACF3839C-A984-43AF-A340-4356067589A8}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{65C2C9EF-69F7-4D32-AF83-97521F500E65}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{78EED579-051D-4A7F-B1B2-F8E62D65CEA3}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{C64E2A55-10B1-4F21-8CEA-BA41ED78B3CC}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{754133E3-35AB-4D45-B531-E5D365DE6734}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{D3950B55-B8E7-4422-8DC6-F4D3485BFA97}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{BBB90398-E806-4963-A71E-A27966DE5A8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/complaints.xlsx
+++ b/complaints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\docvec_hackathon\dovec_hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96ACF40-EEC8-4D01-81AB-56AD068A0A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8675B7-2F5A-4D5F-B89A-0FDC6E32F9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19848" windowHeight="10056" xr2:uid="{75135ECF-1048-4EAE-9813-B56350702146}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75135ECF-1048-4EAE-9813-B56350702146}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>customer_name</t>
   </si>
@@ -47,51 +47,27 @@
     <t>Ali</t>
   </si>
   <si>
-    <t>ali@outlook.com</t>
-  </si>
-  <si>
     <t>Meghan</t>
   </si>
   <si>
-    <t>meghan@outlook.com</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
-    <t>mark@outlook.com</t>
-  </si>
-  <si>
     <t>Olivia</t>
   </si>
   <si>
-    <t>olivia@example.com</t>
-  </si>
-  <si>
     <t>Sophia</t>
   </si>
   <si>
-    <t>sophia@example.com</t>
-  </si>
-  <si>
     <t>Ersal</t>
   </si>
   <si>
-    <t>ersal@example.com</t>
-  </si>
-  <si>
     <t>Shailene</t>
   </si>
   <si>
-    <t>shailene@example.com</t>
-  </si>
-  <si>
     <t>Cher</t>
   </si>
   <si>
-    <t>cher@example.com</t>
-  </si>
-  <si>
     <t>Noise disturbance from neighboring unit</t>
   </si>
   <si>
@@ -128,18 +104,6 @@
     <t>Chemine</t>
   </si>
   <si>
-    <t>sara@example.com</t>
-  </si>
-  <si>
-    <t>eray@example.com</t>
-  </si>
-  <si>
-    <t>shayan@example.com</t>
-  </si>
-  <si>
-    <t>chemine@example.com</t>
-  </si>
-  <si>
     <t>Fix elevator</t>
   </si>
   <si>
@@ -176,12 +140,6 @@
     <t>Erol</t>
   </si>
   <si>
-    <t>salmah@example.com</t>
-  </si>
-  <si>
-    <t>erol@example.com</t>
-  </si>
-  <si>
     <t>No water</t>
   </si>
   <si>
@@ -192,6 +150,9 @@
   </si>
   <si>
     <t>complaints</t>
+  </si>
+  <si>
+    <t>noorulzayn10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -241,12 +202,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,7 +549,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,20 +557,20 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.5546875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
     <col min="6" max="6" width="33.77734375" customWidth="1"/>
     <col min="7" max="7" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -619,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -631,16 +591,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -652,16 +612,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -673,16 +633,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -694,15 +654,15 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -713,16 +673,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -734,16 +694,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -755,16 +715,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -776,16 +736,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -797,16 +757,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -817,16 +777,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -837,13 +797,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -854,16 +814,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -874,16 +834,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -894,32 +854,22 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{416722AF-FAC8-4C8E-AABE-69DC6FB2D4F0}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{51D702CD-CB41-4AC1-9CD3-492B3FF49D57}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{F3051625-5778-430C-B002-B57C63C9C0AD}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{591B1184-9B5C-49E0-BD58-363086B73D1E}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{653C535A-D29A-4419-BA3E-7832F54E8496}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{ACF3839C-A984-43AF-A340-4356067589A8}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{65C2C9EF-69F7-4D32-AF83-97521F500E65}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{78EED579-051D-4A7F-B1B2-F8E62D65CEA3}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{C64E2A55-10B1-4F21-8CEA-BA41ED78B3CC}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{754133E3-35AB-4D45-B531-E5D365DE6734}"/>
-    <hyperlink ref="E14" r:id="rId11" xr:uid="{D3950B55-B8E7-4422-8DC6-F4D3485BFA97}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{BBB90398-E806-4963-A71E-A27966DE5A8F}"/>
+    <hyperlink ref="E3:E15" r:id="rId2" display="noorulzayn10@gmail.com" xr:uid="{63555E28-578C-4946-B9D2-4114F2ADC38F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/complaints.xlsx
+++ b/complaints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\docvec_hackathon\dovec_hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8675B7-2F5A-4D5F-B89A-0FDC6E32F9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8D0834-B886-43E1-BD06-A1EECB28F251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75135ECF-1048-4EAE-9813-B56350702146}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
